--- a/flow-android.xlsx
+++ b/flow-android.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-mobile-sample_server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-mobile-sample_android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448FB87F-1F09-B246-91F5-29DDF5408735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E28B15-EF99-1341-8F72-5D42F6888CDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3600" windowWidth="38400" windowHeight="21600" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="21140" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
   </bookViews>
   <sheets>
     <sheet name="Native" sheetId="2" r:id="rId1"/>
@@ -1571,7 +1571,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>confirm_order</a:t>
+            <a:t>confirmOrder</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3918,7 +3918,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>confirm_order</a:t>
+            <a:t>confirmOrder</a:t>
           </a:r>
         </a:p>
         <a:p>

--- a/flow-android.xlsx
+++ b/flow-android.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-mobile-sample_android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E28B15-EF99-1341-8F72-5D42F6888CDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F21B1C-8FE3-204F-96EE-6A5915795A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="21140" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="19780" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
   </bookViews>
   <sheets>
     <sheet name="Native" sheetId="2" r:id="rId1"/>
@@ -684,14 +684,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>AmazonPayRestController#</a:t>
+            <a:t>AmazonPayController#</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>registerOrder</a:t>
+            <a:t>createOrderREST</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1694,7 +1694,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>AmazonPayRestController#</a:t>
+            <a:t>AmazonPayController#</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4041,7 +4041,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>AmazonPayRestController#</a:t>
+            <a:t>AmazonPayController#</a:t>
           </a:r>
         </a:p>
         <a:p>

--- a/flow-android.xlsx
+++ b/flow-android.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-mobile-sample_android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F21B1C-8FE3-204F-96EE-6A5915795A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E03310-6A19-744F-97F2-A6A6CED24CDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="19780" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
+    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="20920" activeTab="2" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
   </bookViews>
   <sheets>
-    <sheet name="Native" sheetId="2" r:id="rId1"/>
-    <sheet name="WebView" sheetId="3" r:id="rId2"/>
+    <sheet name="Native - app決済" sheetId="4" r:id="rId1"/>
+    <sheet name="Native - chrome決済" sheetId="2" r:id="rId2"/>
+    <sheet name="WebView - chrome決済" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="56">
   <si>
     <t>MainActivity</t>
   </si>
@@ -190,10 +191,10 @@
     <t>https://10.0.2.2:8443/thanks</t>
   </si>
   <si>
-    <t>https://10.0.2.2:8443/order.html</t>
+    <t>https://10.0.2.2:8443/createOrder</t>
   </si>
   <si>
-    <t>https://10.0.2.2:8443/createOrder</t>
+    <t>https://10.0.2.2:8443/android/order</t>
   </si>
 </sst>
 </file>
@@ -453,6 +454,2460 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC0C6A2-4BE6-6E49-B948-E1889D0F9D41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37985700" y="6692900"/>
+          <a:ext cx="4533900" cy="7124700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WebView</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29912D3-1ED9-D44F-851D-A18EB78CB073}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17335500" y="6553200"/>
+          <a:ext cx="15316200" cy="7289800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Chrome Custome Tabs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>61468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2251361-05B5-F34F-A267-4378F5411A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10718800" y="14478000"/>
+          <a:ext cx="2959100" cy="658368"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>AmazonPayController#</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>createOrderREST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Can 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABED809B-2956-0546-AC6B-8AD3D4870FD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22225000" y="16979900"/>
+          <a:ext cx="1778000" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>DatabaseMock</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>&amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>CacheMock</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>512020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22FB053-8760-0147-A2B4-2DC3CA51F538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6290520" y="3714750"/>
+          <a:ext cx="1342180" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463127</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB263992-A9C6-2840-8490-088B718B54C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9543627" y="6819900"/>
+          <a:ext cx="1975273" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E3B87E8-27BC-A949-8865-770CD0C60131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11722100" y="15227300"/>
+          <a:ext cx="10452100" cy="2603500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E632782-2BCE-F949-8EF7-F4188CA13811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12534900" y="15176500"/>
+          <a:ext cx="9652000" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8269F08-3F7D-F548-99AE-A9138D13B072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12598400" y="3784600"/>
+          <a:ext cx="1117600" cy="10604500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>199768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648A5A23-C29B-BA4C-BBFC-948A577EA264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17640300" y="7416800"/>
+          <a:ext cx="3835400" cy="6219568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD9EE2C-7237-114E-86E1-6C40BCEC8433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17424400" y="3701191"/>
+          <a:ext cx="1028700" cy="2877409"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC3F8A3-1693-4045-BF56-5A14C4E0E5B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18554700" y="13589000"/>
+          <a:ext cx="152400" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C733EEA4-4424-7948-873D-129995C46DC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19164300" y="13563600"/>
+          <a:ext cx="152400" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>510973</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>40101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>765429</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>23745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="U-Turn Arrow 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2A2138-8E64-3A4A-AB24-918AD58C4E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8620063">
+          <a:off x="20322973" y="13476701"/>
+          <a:ext cx="1079956" cy="605944"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>90273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26ECD1AD-2F95-4F40-935A-004C7CA28D87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22872700" y="7531100"/>
+          <a:ext cx="3822700" cy="6198973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38787</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47151A27-C0A1-2741-929C-CA11E7F695E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21577300" y="10629900"/>
+          <a:ext cx="1295400" cy="687"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>39473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA96E264-1935-944C-AF34-F8B091E4CD54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28155900" y="7480300"/>
+          <a:ext cx="3822700" cy="6198973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFEE4C7F-9B56-BB43-9001-4361454A5755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25908000" y="13589000"/>
+          <a:ext cx="114300" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94DE619-1892-B54F-A4EB-B8ECEEC1D050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25336500" y="14744700"/>
+          <a:ext cx="2628900" cy="901700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>AmazonPayController#</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>confirmOrder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>&amp;  confirm_order.html</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3A253B-3B38-6142-98AC-2EBDBB3FE8E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="27609800" y="10629900"/>
+          <a:ext cx="749300" cy="4089400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rounded Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E938B59-0614-7046-85E5-D0D38623E7E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28130500" y="14859000"/>
+          <a:ext cx="2324100" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>AmazonPayController#</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>calcPostage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A3C7B0-D68C-D34D-A5EE-607FDD751FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28892500" y="13601700"/>
+          <a:ext cx="139700" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891F341B-9E46-8643-8D09-864E9BC99F81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="24079200" y="15519400"/>
+          <a:ext cx="5143500" cy="1879600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD058F4-7A04-784C-80E6-99E970B21358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="29718000" y="13652500"/>
+          <a:ext cx="88900" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rounded Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F31E72A-DA3D-C444-8A45-498D8738DC9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38823900" y="14795500"/>
+          <a:ext cx="2882900" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>AmazonPayController#thanks</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>thanks.html</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D42A50C-1ED1-614E-802A-1328775669F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30518100" y="13614400"/>
+          <a:ext cx="622300" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B56149-9D8B-194E-816C-0E8D77E2C6D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="31318200" y="13512800"/>
+          <a:ext cx="1270000" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rounded Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DAF26FA-140C-4342-BA45-02F90BCA82E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30657800" y="14859000"/>
+          <a:ext cx="2730500" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>AmazonPayController#purchase</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>purchase.html</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rounded Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621B9AA7-5920-8740-85E3-7BF3C55DB315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17335500" y="14465300"/>
+          <a:ext cx="2997200" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>AmazonPayController#button</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>&amp;   button.html</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>155372</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>409828</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>176144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="U-Turn Arrow 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0441AD83-F705-144F-A71A-208460027426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="24094872" y="13677899"/>
+          <a:ext cx="1079956" cy="557145"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+            <a:gd name="adj4" fmla="val 50000"/>
+            <a:gd name="adj5" fmla="val 75000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7B293E-2065-E04C-B5C1-D74B6689BE52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23698200" y="15684500"/>
+          <a:ext cx="2489200" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5138A0C9-D4A8-1C4B-A069-2501216C32A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="24104600" y="15506700"/>
+          <a:ext cx="7251700" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>40101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>257428</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="U-Turn Arrow 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F41513-C192-3248-92A7-108FD2D1F575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="31508700" y="15521401"/>
+          <a:ext cx="943228" cy="493299"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+            <a:gd name="adj4" fmla="val 50000"/>
+            <a:gd name="adj5" fmla="val 75000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4C5FB1-2DDA-EF47-AFE3-9847458D0829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="32042100" y="3644900"/>
+          <a:ext cx="2184400" cy="6540501"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311F6ECE-EF81-2F4E-A2DD-30EE9DBD3CFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34036000" y="622300"/>
+          <a:ext cx="3822700" cy="6198973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B163E53-8BDF-8849-AEA1-B1FE375F31AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35890200" y="3848100"/>
+          <a:ext cx="2247900" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Elbow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D717DA-574B-EA4C-8988-4B1B29984E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="30857825" y="8613775"/>
+          <a:ext cx="2641600" cy="16173450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723053</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AD8CFB-F212-4F40-B7D9-CCBE050189AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7632700" y="622300"/>
+          <a:ext cx="3821853" cy="6197600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>148968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0ABAAC-C883-794A-BD46-9C6D7858C9A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13538200" y="647700"/>
+          <a:ext cx="3835400" cy="6219568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>174368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D41D066-AFEF-5544-B575-F801058F1E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38481000" y="7391400"/>
+          <a:ext cx="3835400" cy="6219568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680BDE37-292D-2145-8738-E717D8115E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="40881300" y="12255500"/>
+          <a:ext cx="88900" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534C2E7B-E72C-E940-A4B7-C7078BC383CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="39433500" y="12192000"/>
+          <a:ext cx="12700" cy="2590800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>156675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A179BA9F-72E3-B942-B66D-62364DB26830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="635000"/>
+          <a:ext cx="3382475" cy="6019800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="Rounded Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -584,50 +3039,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>825499</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>512020</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49BDF4C-E60C-6647-8521-9D70EC80E8B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="825499" y="406400"/>
-          <a:ext cx="3814021" cy="6184900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -798,7 +3209,6 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
           <a:endCxn id="14" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -1072,7 +3482,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1339,7 +3749,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1438,7 +3848,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2525,7 +4935,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2677,7 +5087,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2721,7 +5131,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2765,7 +5175,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2888,10 +5298,54 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>124139</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4D62E2-D373-F34D-8888-5DFCFAAFB1D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2527300" y="635000"/>
+          <a:ext cx="3375339" cy="6007100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3110,50 +5564,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>825499</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>512020</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0622235-881A-344D-A657-F04B5EBAB752}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476499" y="622300"/>
-          <a:ext cx="3814021" cy="6184900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3419,7 +5829,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3686,7 +6096,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3785,7 +6195,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4872,7 +7282,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5217,7 +7627,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5369,7 +7779,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5413,7 +7823,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5457,7 +7867,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5578,6 +7988,50 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>73339</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9A471A-BF84-304C-AD5A-C2D23D42D95F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="622300"/>
+          <a:ext cx="3375339" cy="6007100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5879,10 +8333,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825D99BE-63C2-7E44-889E-F179BF7D5A5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5778F0D2-D97B-2C42-AF8F-C39DC893977E}">
   <dimension ref="A1:BC93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11160,6 +13616,5300 @@
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="U70" r:id="rId1" xr:uid="{31A69848-3AF7-764C-85AF-9ADC3A7A164C}"/>
+    <hyperlink ref="Z73" r:id="rId2" xr:uid="{9CC02C19-0871-D642-BC79-4909167F88F9}"/>
+    <hyperlink ref="AF71" r:id="rId3" xr:uid="{0AABF5DA-0BC2-9C4D-A499-C196F1028633}"/>
+    <hyperlink ref="AV71" r:id="rId4" xr:uid="{8E4F9F5F-9076-D546-A53A-3BD7CC83DE45}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825D99BE-63C2-7E44-889E-F179BF7D5A5E}">
+  <dimension ref="A1:BC93"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B2" s="15"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="5"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="8"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="8"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="8"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="8"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="8"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="8"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B9" s="17"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="8"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="8"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="8"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="8"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B13" s="17"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="8"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B14" s="17"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="8"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B15" s="17"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="7"/>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="8"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B16" s="17"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="7"/>
+      <c r="AW16" s="7"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="7"/>
+      <c r="BC16" s="8"/>
+    </row>
+    <row r="17" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B17" s="17"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
+      <c r="BC17" s="8"/>
+    </row>
+    <row r="18" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B18" s="17"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7"/>
+      <c r="AZ18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
+      <c r="BC18" s="8"/>
+    </row>
+    <row r="19" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B19" s="17"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="8"/>
+    </row>
+    <row r="20" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B20" s="17"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="7"/>
+      <c r="BC20" s="8"/>
+    </row>
+    <row r="21" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B21" s="17"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="7"/>
+      <c r="BC21" s="8"/>
+    </row>
+    <row r="22" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B22" s="17"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
+      <c r="BC22" s="8"/>
+    </row>
+    <row r="23" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B23" s="17"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
+      <c r="AZ23" s="7"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="7"/>
+      <c r="BC23" s="8"/>
+    </row>
+    <row r="24" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B24" s="17"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" s="7"/>
+      <c r="BC24" s="8"/>
+    </row>
+    <row r="25" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B25" s="17"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="7"/>
+      <c r="AX25" s="7"/>
+      <c r="AY25" s="7"/>
+      <c r="AZ25" s="7"/>
+      <c r="BA25" s="7"/>
+      <c r="BB25" s="7"/>
+      <c r="BC25" s="8"/>
+    </row>
+    <row r="26" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B26" s="17"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
+      <c r="BC26" s="8"/>
+    </row>
+    <row r="27" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B27" s="17"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" s="7"/>
+      <c r="BC27" s="8"/>
+    </row>
+    <row r="28" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B28" s="17"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+      <c r="AP28" s="7"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7"/>
+      <c r="AW28" s="7"/>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="7"/>
+      <c r="AZ28" s="7"/>
+      <c r="BA28" s="7"/>
+      <c r="BB28" s="7"/>
+      <c r="BC28" s="8"/>
+    </row>
+    <row r="29" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B29" s="17"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="7"/>
+      <c r="AW29" s="7"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="7"/>
+      <c r="BB29" s="7"/>
+      <c r="BC29" s="8"/>
+    </row>
+    <row r="30" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B30" s="17"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="7"/>
+      <c r="BA30" s="7"/>
+      <c r="BB30" s="7"/>
+      <c r="BC30" s="8"/>
+    </row>
+    <row r="31" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B31" s="17"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7"/>
+      <c r="AW31" s="7"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7"/>
+      <c r="AZ31" s="7"/>
+      <c r="BA31" s="7"/>
+      <c r="BB31" s="7"/>
+      <c r="BC31" s="8"/>
+    </row>
+    <row r="32" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B32" s="17"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="7"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7"/>
+      <c r="AZ32" s="7"/>
+      <c r="BA32" s="7"/>
+      <c r="BB32" s="7"/>
+      <c r="BC32" s="8"/>
+    </row>
+    <row r="33" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B33" s="17"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="7"/>
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="7"/>
+      <c r="AW33" s="7"/>
+      <c r="AX33" s="7"/>
+      <c r="AY33" s="7"/>
+      <c r="AZ33" s="7"/>
+      <c r="BA33" s="7"/>
+      <c r="BB33" s="7"/>
+      <c r="BC33" s="8"/>
+    </row>
+    <row r="34" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B34" s="17"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="7"/>
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="7"/>
+      <c r="AZ34" s="7"/>
+      <c r="BA34" s="7"/>
+      <c r="BB34" s="7"/>
+      <c r="BC34" s="8"/>
+    </row>
+    <row r="35" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="18"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="12"/>
+      <c r="BA35" s="12"/>
+      <c r="BB35" s="12"/>
+      <c r="BC35" s="13"/>
+    </row>
+    <row r="36" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B36" s="15"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="5"/>
+    </row>
+    <row r="37" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B37" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="7"/>
+      <c r="AS37" s="7"/>
+      <c r="AT37" s="7"/>
+      <c r="AU37" s="7"/>
+      <c r="AV37" s="7"/>
+      <c r="AW37" s="7"/>
+      <c r="AX37" s="7"/>
+      <c r="AY37" s="7"/>
+      <c r="AZ37" s="7"/>
+      <c r="BA37" s="7"/>
+      <c r="BB37" s="7"/>
+      <c r="BC37" s="8"/>
+    </row>
+    <row r="38" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
+      <c r="AT38" s="7"/>
+      <c r="AU38" s="7"/>
+      <c r="AV38" s="7"/>
+      <c r="AW38" s="7"/>
+      <c r="AX38" s="7"/>
+      <c r="AY38" s="7"/>
+      <c r="AZ38" s="7"/>
+      <c r="BA38" s="7"/>
+      <c r="BB38" s="7"/>
+      <c r="BC38" s="8"/>
+    </row>
+    <row r="39" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B39" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="7"/>
+      <c r="AT39" s="7"/>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="7"/>
+      <c r="AW39" s="7"/>
+      <c r="AX39" s="7"/>
+      <c r="AY39" s="7"/>
+      <c r="AZ39" s="7"/>
+      <c r="BA39" s="7"/>
+      <c r="BB39" s="7"/>
+      <c r="BC39" s="8"/>
+    </row>
+    <row r="40" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="7"/>
+      <c r="AS40" s="7"/>
+      <c r="AT40" s="7"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="7"/>
+      <c r="AW40" s="7"/>
+      <c r="AX40" s="7"/>
+      <c r="AY40" s="7"/>
+      <c r="AZ40" s="7"/>
+      <c r="BA40" s="7"/>
+      <c r="BB40" s="7"/>
+      <c r="BC40" s="8"/>
+    </row>
+    <row r="41" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="7"/>
+      <c r="AS41" s="7"/>
+      <c r="AT41" s="7"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7"/>
+      <c r="AW41" s="7"/>
+      <c r="AX41" s="7"/>
+      <c r="AY41" s="7"/>
+      <c r="AZ41" s="7"/>
+      <c r="BA41" s="7"/>
+      <c r="BB41" s="7"/>
+      <c r="BC41" s="8"/>
+    </row>
+    <row r="42" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B42" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+      <c r="AP42" s="7"/>
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="7"/>
+      <c r="AS42" s="7"/>
+      <c r="AT42" s="7"/>
+      <c r="AU42" s="7"/>
+      <c r="AV42" s="7"/>
+      <c r="AW42" s="7"/>
+      <c r="AX42" s="7"/>
+      <c r="AY42" s="7"/>
+      <c r="AZ42" s="7"/>
+      <c r="BA42" s="7"/>
+      <c r="BB42" s="7"/>
+      <c r="BC42" s="8"/>
+    </row>
+    <row r="43" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+      <c r="AP43" s="7"/>
+      <c r="AQ43" s="7"/>
+      <c r="AR43" s="7"/>
+      <c r="AS43" s="7"/>
+      <c r="AT43" s="7"/>
+      <c r="AU43" s="7"/>
+      <c r="AV43" s="7"/>
+      <c r="AW43" s="7"/>
+      <c r="AX43" s="7"/>
+      <c r="AY43" s="7"/>
+      <c r="AZ43" s="7"/>
+      <c r="BA43" s="7"/>
+      <c r="BB43" s="7"/>
+      <c r="BC43" s="8"/>
+    </row>
+    <row r="44" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B44" s="17"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="7"/>
+      <c r="AP44" s="7"/>
+      <c r="AQ44" s="7"/>
+      <c r="AR44" s="7"/>
+      <c r="AS44" s="7"/>
+      <c r="AT44" s="7"/>
+      <c r="AU44" s="7"/>
+      <c r="AV44" s="7"/>
+      <c r="AW44" s="7"/>
+      <c r="AX44" s="7"/>
+      <c r="AY44" s="7"/>
+      <c r="AZ44" s="7"/>
+      <c r="BA44" s="7"/>
+      <c r="BB44" s="7"/>
+      <c r="BC44" s="8"/>
+    </row>
+    <row r="45" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B45" s="17"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="7"/>
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="7"/>
+      <c r="AS45" s="7"/>
+      <c r="AT45" s="7"/>
+      <c r="AU45" s="7"/>
+      <c r="AV45" s="7"/>
+      <c r="AW45" s="7"/>
+      <c r="AX45" s="7"/>
+      <c r="AY45" s="7"/>
+      <c r="AZ45" s="7"/>
+      <c r="BA45" s="7"/>
+      <c r="BB45" s="7"/>
+      <c r="BC45" s="8"/>
+    </row>
+    <row r="46" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B46" s="17"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+      <c r="AP46" s="7"/>
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="7"/>
+      <c r="AS46" s="7"/>
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="7"/>
+      <c r="AV46" s="7"/>
+      <c r="AW46" s="7"/>
+      <c r="AX46" s="7"/>
+      <c r="AY46" s="7"/>
+      <c r="AZ46" s="7"/>
+      <c r="BA46" s="7"/>
+      <c r="BB46" s="7"/>
+      <c r="BC46" s="8"/>
+    </row>
+    <row r="47" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B47" s="17"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="7"/>
+      <c r="AT47" s="7"/>
+      <c r="AU47" s="7"/>
+      <c r="AV47" s="7"/>
+      <c r="AW47" s="7"/>
+      <c r="AX47" s="7"/>
+      <c r="AY47" s="7"/>
+      <c r="AZ47" s="7"/>
+      <c r="BA47" s="7"/>
+      <c r="BB47" s="7"/>
+      <c r="BC47" s="8"/>
+    </row>
+    <row r="48" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B48" s="17"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="7"/>
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="7"/>
+      <c r="AS48" s="7"/>
+      <c r="AT48" s="7"/>
+      <c r="AU48" s="7"/>
+      <c r="AV48" s="7"/>
+      <c r="AW48" s="7"/>
+      <c r="AX48" s="7"/>
+      <c r="AY48" s="7"/>
+      <c r="AZ48" s="7"/>
+      <c r="BA48" s="7"/>
+      <c r="BB48" s="7"/>
+      <c r="BC48" s="8"/>
+    </row>
+    <row r="49" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B49" s="17"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="7"/>
+      <c r="AQ49" s="7"/>
+      <c r="AR49" s="7"/>
+      <c r="AS49" s="7"/>
+      <c r="AT49" s="7"/>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="7"/>
+      <c r="AW49" s="7"/>
+      <c r="AX49" s="7"/>
+      <c r="AY49" s="7"/>
+      <c r="AZ49" s="7"/>
+      <c r="BA49" s="7"/>
+      <c r="BB49" s="7"/>
+      <c r="BC49" s="8"/>
+    </row>
+    <row r="50" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B50" s="17"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="7"/>
+      <c r="AS50" s="7"/>
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7"/>
+      <c r="AW50" s="7"/>
+      <c r="AX50" s="7"/>
+      <c r="AY50" s="7"/>
+      <c r="AZ50" s="7"/>
+      <c r="BA50" s="7"/>
+      <c r="BB50" s="7"/>
+      <c r="BC50" s="8"/>
+    </row>
+    <row r="51" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B51" s="17"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
+      <c r="AP51" s="7"/>
+      <c r="AQ51" s="7"/>
+      <c r="AR51" s="7"/>
+      <c r="AS51" s="7"/>
+      <c r="AT51" s="7"/>
+      <c r="AU51" s="7"/>
+      <c r="AV51" s="7"/>
+      <c r="AW51" s="7"/>
+      <c r="AX51" s="7"/>
+      <c r="AY51" s="7"/>
+      <c r="AZ51" s="7"/>
+      <c r="BA51" s="7"/>
+      <c r="BB51" s="7"/>
+      <c r="BC51" s="8"/>
+    </row>
+    <row r="52" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B52" s="17"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+      <c r="AP52" s="7"/>
+      <c r="AQ52" s="7"/>
+      <c r="AR52" s="7"/>
+      <c r="AS52" s="7"/>
+      <c r="AT52" s="7"/>
+      <c r="AU52" s="7"/>
+      <c r="AV52" s="7"/>
+      <c r="AW52" s="7"/>
+      <c r="AX52" s="7"/>
+      <c r="AY52" s="7"/>
+      <c r="AZ52" s="7"/>
+      <c r="BA52" s="7"/>
+      <c r="BB52" s="7"/>
+      <c r="BC52" s="8"/>
+    </row>
+    <row r="53" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B53" s="17"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
+      <c r="AP53" s="7"/>
+      <c r="AQ53" s="7"/>
+      <c r="AR53" s="7"/>
+      <c r="AS53" s="7"/>
+      <c r="AT53" s="7"/>
+      <c r="AU53" s="7"/>
+      <c r="AV53" s="7"/>
+      <c r="AW53" s="7"/>
+      <c r="AX53" s="7"/>
+      <c r="AY53" s="7"/>
+      <c r="AZ53" s="7"/>
+      <c r="BA53" s="7"/>
+      <c r="BB53" s="7"/>
+      <c r="BC53" s="8"/>
+    </row>
+    <row r="54" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B54" s="17"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="7"/>
+      <c r="AP54" s="7"/>
+      <c r="AQ54" s="7"/>
+      <c r="AR54" s="7"/>
+      <c r="AS54" s="7"/>
+      <c r="AT54" s="7"/>
+      <c r="AU54" s="7"/>
+      <c r="AV54" s="7"/>
+      <c r="AW54" s="7"/>
+      <c r="AX54" s="7"/>
+      <c r="AY54" s="7"/>
+      <c r="AZ54" s="7"/>
+      <c r="BA54" s="7"/>
+      <c r="BB54" s="7"/>
+      <c r="BC54" s="8"/>
+    </row>
+    <row r="55" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B55" s="17"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+      <c r="AO55" s="7"/>
+      <c r="AP55" s="7"/>
+      <c r="AQ55" s="7"/>
+      <c r="AR55" s="7"/>
+      <c r="AS55" s="7"/>
+      <c r="AT55" s="7"/>
+      <c r="AU55" s="7"/>
+      <c r="AV55" s="7"/>
+      <c r="AW55" s="7"/>
+      <c r="AX55" s="7"/>
+      <c r="AY55" s="7"/>
+      <c r="AZ55" s="7"/>
+      <c r="BA55" s="7"/>
+      <c r="BB55" s="7"/>
+      <c r="BC55" s="8"/>
+    </row>
+    <row r="56" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B56" s="17"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+      <c r="AP56" s="7"/>
+      <c r="AQ56" s="7"/>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7"/>
+      <c r="AT56" s="7"/>
+      <c r="AU56" s="7"/>
+      <c r="AV56" s="7"/>
+      <c r="AW56" s="7"/>
+      <c r="AX56" s="7"/>
+      <c r="AY56" s="7"/>
+      <c r="AZ56" s="7"/>
+      <c r="BA56" s="7"/>
+      <c r="BB56" s="7"/>
+      <c r="BC56" s="8"/>
+    </row>
+    <row r="57" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B57" s="17"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="7"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+      <c r="AO57" s="7"/>
+      <c r="AP57" s="7"/>
+      <c r="AQ57" s="7"/>
+      <c r="AR57" s="7"/>
+      <c r="AS57" s="7"/>
+      <c r="AT57" s="7"/>
+      <c r="AU57" s="7"/>
+      <c r="AV57" s="7"/>
+      <c r="AW57" s="7"/>
+      <c r="AX57" s="7"/>
+      <c r="AY57" s="7"/>
+      <c r="AZ57" s="7"/>
+      <c r="BA57" s="7"/>
+      <c r="BB57" s="7"/>
+      <c r="BC57" s="8"/>
+    </row>
+    <row r="58" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B58" s="17"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+      <c r="AO58" s="7"/>
+      <c r="AP58" s="7"/>
+      <c r="AQ58" s="7"/>
+      <c r="AR58" s="7"/>
+      <c r="AS58" s="7"/>
+      <c r="AT58" s="7"/>
+      <c r="AU58" s="7"/>
+      <c r="AV58" s="7"/>
+      <c r="AW58" s="7"/>
+      <c r="AX58" s="7"/>
+      <c r="AY58" s="7"/>
+      <c r="AZ58" s="7"/>
+      <c r="BA58" s="7"/>
+      <c r="BB58" s="7"/>
+      <c r="BC58" s="8"/>
+    </row>
+    <row r="59" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B59" s="17"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+      <c r="AO59" s="7"/>
+      <c r="AP59" s="7"/>
+      <c r="AQ59" s="7"/>
+      <c r="AR59" s="7"/>
+      <c r="AS59" s="7"/>
+      <c r="AT59" s="7"/>
+      <c r="AU59" s="7"/>
+      <c r="AV59" s="7"/>
+      <c r="AW59" s="7"/>
+      <c r="AX59" s="7"/>
+      <c r="AY59" s="7"/>
+      <c r="AZ59" s="7"/>
+      <c r="BA59" s="7"/>
+      <c r="BB59" s="7"/>
+      <c r="BC59" s="8"/>
+    </row>
+    <row r="60" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B60" s="17"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+      <c r="AO60" s="7"/>
+      <c r="AP60" s="7"/>
+      <c r="AQ60" s="7"/>
+      <c r="AR60" s="7"/>
+      <c r="AS60" s="7"/>
+      <c r="AT60" s="7"/>
+      <c r="AU60" s="7"/>
+      <c r="AV60" s="7"/>
+      <c r="AW60" s="7"/>
+      <c r="AX60" s="7"/>
+      <c r="AY60" s="7"/>
+      <c r="AZ60" s="7"/>
+      <c r="BA60" s="7"/>
+      <c r="BB60" s="7"/>
+      <c r="BC60" s="8"/>
+    </row>
+    <row r="61" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B61" s="17"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+      <c r="AP61" s="7"/>
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="7"/>
+      <c r="AT61" s="7"/>
+      <c r="AU61" s="7"/>
+      <c r="AV61" s="7"/>
+      <c r="AW61" s="7"/>
+      <c r="AX61" s="7"/>
+      <c r="AY61" s="7"/>
+      <c r="AZ61" s="7"/>
+      <c r="BA61" s="7"/>
+      <c r="BB61" s="7"/>
+      <c r="BC61" s="8"/>
+    </row>
+    <row r="62" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B62" s="17"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+      <c r="AO62" s="7"/>
+      <c r="AP62" s="7"/>
+      <c r="AQ62" s="7"/>
+      <c r="AR62" s="7"/>
+      <c r="AS62" s="7"/>
+      <c r="AT62" s="7"/>
+      <c r="AU62" s="7"/>
+      <c r="AV62" s="7"/>
+      <c r="AW62" s="7"/>
+      <c r="AX62" s="7"/>
+      <c r="AY62" s="7"/>
+      <c r="AZ62" s="7"/>
+      <c r="BA62" s="7"/>
+      <c r="BB62" s="7"/>
+      <c r="BC62" s="8"/>
+    </row>
+    <row r="63" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B63" s="17"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="7"/>
+      <c r="AG63" s="7"/>
+      <c r="AH63" s="7"/>
+      <c r="AI63" s="7"/>
+      <c r="AJ63" s="7"/>
+      <c r="AK63" s="7"/>
+      <c r="AL63" s="7"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+      <c r="AO63" s="7"/>
+      <c r="AP63" s="7"/>
+      <c r="AQ63" s="7"/>
+      <c r="AR63" s="7"/>
+      <c r="AS63" s="7"/>
+      <c r="AT63" s="7"/>
+      <c r="AU63" s="7"/>
+      <c r="AV63" s="7"/>
+      <c r="AW63" s="7"/>
+      <c r="AX63" s="7"/>
+      <c r="AY63" s="7"/>
+      <c r="AZ63" s="7"/>
+      <c r="BA63" s="7"/>
+      <c r="BB63" s="7"/>
+      <c r="BC63" s="8"/>
+    </row>
+    <row r="64" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B64" s="17"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7"/>
+      <c r="AH64" s="7"/>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="7"/>
+      <c r="AK64" s="7"/>
+      <c r="AL64" s="7"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+      <c r="AO64" s="7"/>
+      <c r="AP64" s="7"/>
+      <c r="AQ64" s="7"/>
+      <c r="AR64" s="7"/>
+      <c r="AS64" s="7"/>
+      <c r="AT64" s="7"/>
+      <c r="AU64" s="7"/>
+      <c r="AV64" s="7"/>
+      <c r="AW64" s="7"/>
+      <c r="AX64" s="7"/>
+      <c r="AY64" s="7"/>
+      <c r="AZ64" s="7"/>
+      <c r="BA64" s="7"/>
+      <c r="BB64" s="7"/>
+      <c r="BC64" s="8"/>
+    </row>
+    <row r="65" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B65" s="17"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="7"/>
+      <c r="AH65" s="7"/>
+      <c r="AI65" s="7"/>
+      <c r="AJ65" s="7"/>
+      <c r="AK65" s="7"/>
+      <c r="AL65" s="7"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+      <c r="AO65" s="7"/>
+      <c r="AP65" s="7"/>
+      <c r="AQ65" s="7"/>
+      <c r="AR65" s="7"/>
+      <c r="AS65" s="7"/>
+      <c r="AT65" s="7"/>
+      <c r="AU65" s="7"/>
+      <c r="AV65" s="7"/>
+      <c r="AW65" s="7"/>
+      <c r="AX65" s="7"/>
+      <c r="AY65" s="7"/>
+      <c r="AZ65" s="7"/>
+      <c r="BA65" s="7"/>
+      <c r="BB65" s="7"/>
+      <c r="BC65" s="8"/>
+    </row>
+    <row r="66" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B66" s="17"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="7"/>
+      <c r="AH66" s="7"/>
+      <c r="AI66" s="7"/>
+      <c r="AJ66" s="7"/>
+      <c r="AK66" s="7"/>
+      <c r="AL66" s="7"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+      <c r="AO66" s="7"/>
+      <c r="AP66" s="7"/>
+      <c r="AQ66" s="7"/>
+      <c r="AR66" s="7"/>
+      <c r="AS66" s="7"/>
+      <c r="AT66" s="7"/>
+      <c r="AU66" s="7"/>
+      <c r="AV66" s="7"/>
+      <c r="AW66" s="7"/>
+      <c r="AX66" s="7"/>
+      <c r="AY66" s="7"/>
+      <c r="AZ66" s="7"/>
+      <c r="BA66" s="7"/>
+      <c r="BB66" s="7"/>
+      <c r="BC66" s="8"/>
+    </row>
+    <row r="67" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B67" s="17"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="7"/>
+      <c r="AH67" s="7"/>
+      <c r="AI67" s="7"/>
+      <c r="AJ67" s="7"/>
+      <c r="AK67" s="7"/>
+      <c r="AL67" s="7"/>
+      <c r="AM67" s="7"/>
+      <c r="AN67" s="7"/>
+      <c r="AO67" s="7"/>
+      <c r="AP67" s="7"/>
+      <c r="AQ67" s="7"/>
+      <c r="AR67" s="7"/>
+      <c r="AS67" s="7"/>
+      <c r="AT67" s="7"/>
+      <c r="AU67" s="7"/>
+      <c r="AV67" s="7"/>
+      <c r="AW67" s="7"/>
+      <c r="AX67" s="7"/>
+      <c r="AY67" s="7"/>
+      <c r="AZ67" s="7"/>
+      <c r="BA67" s="7"/>
+      <c r="BB67" s="7"/>
+      <c r="BC67" s="8"/>
+    </row>
+    <row r="68" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B68" s="17"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="7"/>
+      <c r="AH68" s="7"/>
+      <c r="AI68" s="7"/>
+      <c r="AJ68" s="7"/>
+      <c r="AK68" s="7"/>
+      <c r="AL68" s="7"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+      <c r="AO68" s="7"/>
+      <c r="AP68" s="7"/>
+      <c r="AQ68" s="7"/>
+      <c r="AR68" s="7"/>
+      <c r="AS68" s="7"/>
+      <c r="AT68" s="7"/>
+      <c r="AU68" s="7"/>
+      <c r="AV68" s="7"/>
+      <c r="AW68" s="7"/>
+      <c r="AX68" s="7"/>
+      <c r="AY68" s="7"/>
+      <c r="AZ68" s="7"/>
+      <c r="BA68" s="7"/>
+      <c r="BB68" s="7"/>
+      <c r="BC68" s="8"/>
+    </row>
+    <row r="69" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="18"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="12"/>
+      <c r="AT69" s="12"/>
+      <c r="AU69" s="12"/>
+      <c r="AV69" s="12"/>
+      <c r="AW69" s="12"/>
+      <c r="AX69" s="12"/>
+      <c r="AY69" s="12"/>
+      <c r="AZ69" s="12"/>
+      <c r="BA69" s="12"/>
+      <c r="BB69" s="12"/>
+      <c r="BC69" s="13"/>
+    </row>
+    <row r="70" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B70" s="15"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="V70" s="4"/>
+      <c r="W70" s="21"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG70" s="4"/>
+      <c r="AH70" s="4"/>
+      <c r="AI70" s="4"/>
+      <c r="AJ70" s="4"/>
+      <c r="AK70" s="4"/>
+      <c r="AL70" s="4"/>
+      <c r="AM70" s="4"/>
+      <c r="AN70" s="4"/>
+      <c r="AO70" s="4"/>
+      <c r="AP70" s="4"/>
+      <c r="AQ70" s="4"/>
+      <c r="AR70" s="4"/>
+      <c r="AS70" s="4"/>
+      <c r="AT70" s="4"/>
+      <c r="AU70" s="4"/>
+      <c r="AV70" s="4"/>
+      <c r="AW70" s="4"/>
+      <c r="AX70" s="4"/>
+      <c r="AY70" s="4"/>
+      <c r="AZ70" s="4"/>
+      <c r="BA70" s="4"/>
+      <c r="BB70" s="4"/>
+      <c r="BC70" s="5"/>
+    </row>
+    <row r="71" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B71" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE71" s="7"/>
+      <c r="AF71" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG71" s="7"/>
+      <c r="AH71" s="7"/>
+      <c r="AI71" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ71" s="7"/>
+      <c r="AK71" s="7"/>
+      <c r="AL71" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="7"/>
+      <c r="AO71" s="7"/>
+      <c r="AP71" s="7"/>
+      <c r="AQ71" s="7"/>
+      <c r="AR71" s="7"/>
+      <c r="AS71" s="7"/>
+      <c r="AT71" s="7"/>
+      <c r="AU71" s="7"/>
+      <c r="AV71" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW71" s="7"/>
+      <c r="AX71" s="7"/>
+      <c r="AY71" s="7"/>
+      <c r="AZ71" s="7"/>
+      <c r="BA71" s="7"/>
+      <c r="BB71" s="7"/>
+      <c r="BC71" s="8"/>
+    </row>
+    <row r="72" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B72" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="7"/>
+      <c r="AG72" s="7"/>
+      <c r="AH72" s="7"/>
+      <c r="AI72" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ72" s="7"/>
+      <c r="AK72" s="7"/>
+      <c r="AL72" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+      <c r="AO72" s="7"/>
+      <c r="AP72" s="7"/>
+      <c r="AQ72" s="7"/>
+      <c r="AR72" s="7"/>
+      <c r="AS72" s="7"/>
+      <c r="AT72" s="7"/>
+      <c r="AU72" s="7"/>
+      <c r="AV72" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW72" s="7"/>
+      <c r="AX72" s="7"/>
+      <c r="AY72" s="7"/>
+      <c r="AZ72" s="7"/>
+      <c r="BA72" s="7"/>
+      <c r="BB72" s="7"/>
+      <c r="BC72" s="8"/>
+    </row>
+    <row r="73" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B73" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="7"/>
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
+      <c r="AJ73" s="7"/>
+      <c r="AK73" s="7"/>
+      <c r="AL73" s="7"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+      <c r="AO73" s="7"/>
+      <c r="AP73" s="7"/>
+      <c r="AQ73" s="7"/>
+      <c r="AR73" s="7"/>
+      <c r="AS73" s="7"/>
+      <c r="AT73" s="7"/>
+      <c r="AU73" s="7"/>
+      <c r="AV73" s="7"/>
+      <c r="AW73" s="7"/>
+      <c r="AX73" s="7"/>
+      <c r="AY73" s="7"/>
+      <c r="AZ73" s="7"/>
+      <c r="BA73" s="7"/>
+      <c r="BB73" s="7"/>
+      <c r="BC73" s="8"/>
+    </row>
+    <row r="74" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B74" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="7"/>
+      <c r="AG74" s="7"/>
+      <c r="AH74" s="7"/>
+      <c r="AI74" s="7"/>
+      <c r="AJ74" s="7"/>
+      <c r="AK74" s="7"/>
+      <c r="AL74" s="7"/>
+      <c r="AM74" s="7"/>
+      <c r="AN74" s="7"/>
+      <c r="AO74" s="7"/>
+      <c r="AP74" s="7"/>
+      <c r="AQ74" s="7"/>
+      <c r="AR74" s="7"/>
+      <c r="AS74" s="7"/>
+      <c r="AT74" s="7"/>
+      <c r="AU74" s="7"/>
+      <c r="AV74" s="7"/>
+      <c r="AW74" s="7"/>
+      <c r="AX74" s="7"/>
+      <c r="AY74" s="7"/>
+      <c r="AZ74" s="7"/>
+      <c r="BA74" s="7"/>
+      <c r="BB74" s="7"/>
+      <c r="BC74" s="8"/>
+    </row>
+    <row r="75" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="7"/>
+      <c r="AI75" s="7"/>
+      <c r="AJ75" s="7"/>
+      <c r="AK75" s="7"/>
+      <c r="AL75" s="7"/>
+      <c r="AM75" s="7"/>
+      <c r="AN75" s="7"/>
+      <c r="AO75" s="7"/>
+      <c r="AP75" s="7"/>
+      <c r="AQ75" s="7"/>
+      <c r="AR75" s="7"/>
+      <c r="AS75" s="7"/>
+      <c r="AT75" s="7"/>
+      <c r="AU75" s="7"/>
+      <c r="AV75" s="7"/>
+      <c r="AW75" s="7"/>
+      <c r="AX75" s="7"/>
+      <c r="AY75" s="7"/>
+      <c r="AZ75" s="7"/>
+      <c r="BA75" s="7"/>
+      <c r="BB75" s="7"/>
+      <c r="BC75" s="8"/>
+    </row>
+    <row r="76" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B76" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
+      <c r="AC76" s="7"/>
+      <c r="AD76" s="7"/>
+      <c r="AE76" s="7"/>
+      <c r="AF76" s="7"/>
+      <c r="AG76" s="7"/>
+      <c r="AH76" s="7"/>
+      <c r="AI76" s="7"/>
+      <c r="AJ76" s="7"/>
+      <c r="AK76" s="7"/>
+      <c r="AL76" s="7"/>
+      <c r="AM76" s="7"/>
+      <c r="AN76" s="7"/>
+      <c r="AO76" s="7"/>
+      <c r="AP76" s="7"/>
+      <c r="AQ76" s="7"/>
+      <c r="AR76" s="7"/>
+      <c r="AS76" s="7"/>
+      <c r="AT76" s="7"/>
+      <c r="AU76" s="7"/>
+      <c r="AV76" s="7"/>
+      <c r="AW76" s="7"/>
+      <c r="AX76" s="7"/>
+      <c r="AY76" s="7"/>
+      <c r="AZ76" s="7"/>
+      <c r="BA76" s="7"/>
+      <c r="BB76" s="7"/>
+      <c r="BC76" s="8"/>
+    </row>
+    <row r="77" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B77" s="17"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+      <c r="AC77" s="7"/>
+      <c r="AD77" s="7"/>
+      <c r="AE77" s="7"/>
+      <c r="AF77" s="7"/>
+      <c r="AG77" s="7"/>
+      <c r="AH77" s="7"/>
+      <c r="AI77" s="7"/>
+      <c r="AJ77" s="7"/>
+      <c r="AK77" s="7"/>
+      <c r="AL77" s="7"/>
+      <c r="AM77" s="7"/>
+      <c r="AN77" s="7"/>
+      <c r="AO77" s="7"/>
+      <c r="AP77" s="7"/>
+      <c r="AQ77" s="7"/>
+      <c r="AR77" s="7"/>
+      <c r="AS77" s="7"/>
+      <c r="AT77" s="7"/>
+      <c r="AU77" s="7"/>
+      <c r="AV77" s="7"/>
+      <c r="AW77" s="7"/>
+      <c r="AX77" s="7"/>
+      <c r="AY77" s="7"/>
+      <c r="AZ77" s="7"/>
+      <c r="BA77" s="7"/>
+      <c r="BB77" s="7"/>
+      <c r="BC77" s="8"/>
+    </row>
+    <row r="78" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B78" s="17"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="7"/>
+      <c r="AG78" s="7"/>
+      <c r="AH78" s="7"/>
+      <c r="AI78" s="7"/>
+      <c r="AJ78" s="7"/>
+      <c r="AK78" s="7"/>
+      <c r="AL78" s="7"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+      <c r="AO78" s="7"/>
+      <c r="AP78" s="7"/>
+      <c r="AQ78" s="7"/>
+      <c r="AR78" s="7"/>
+      <c r="AS78" s="7"/>
+      <c r="AT78" s="7"/>
+      <c r="AU78" s="7"/>
+      <c r="AV78" s="7"/>
+      <c r="AW78" s="7"/>
+      <c r="AX78" s="7"/>
+      <c r="AY78" s="7"/>
+      <c r="AZ78" s="7"/>
+      <c r="BA78" s="7"/>
+      <c r="BB78" s="7"/>
+      <c r="BC78" s="8"/>
+    </row>
+    <row r="79" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B79" s="17"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7"/>
+      <c r="AG79" s="7"/>
+      <c r="AH79" s="7"/>
+      <c r="AI79" s="7"/>
+      <c r="AJ79" s="7"/>
+      <c r="AK79" s="7"/>
+      <c r="AL79" s="7"/>
+      <c r="AM79" s="7"/>
+      <c r="AN79" s="7"/>
+      <c r="AO79" s="7"/>
+      <c r="AP79" s="7"/>
+      <c r="AQ79" s="7"/>
+      <c r="AR79" s="7"/>
+      <c r="AS79" s="7"/>
+      <c r="AT79" s="7"/>
+      <c r="AU79" s="7"/>
+      <c r="AV79" s="7"/>
+      <c r="AW79" s="7"/>
+      <c r="AX79" s="7"/>
+      <c r="AY79" s="7"/>
+      <c r="AZ79" s="7"/>
+      <c r="BA79" s="7"/>
+      <c r="BB79" s="7"/>
+      <c r="BC79" s="8"/>
+    </row>
+    <row r="80" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B80" s="17"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF80" s="7"/>
+      <c r="AG80" s="7"/>
+      <c r="AH80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI80" s="7"/>
+      <c r="AJ80" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK80" s="7"/>
+      <c r="AL80" s="7"/>
+      <c r="AM80" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN80" s="7"/>
+      <c r="AO80" s="7"/>
+      <c r="AP80" s="7"/>
+      <c r="AQ80" s="7"/>
+      <c r="AR80" s="7"/>
+      <c r="AS80" s="7"/>
+      <c r="AT80" s="7"/>
+      <c r="AU80" s="7"/>
+      <c r="AV80" s="7"/>
+      <c r="AW80" s="7"/>
+      <c r="AX80" s="7"/>
+      <c r="AY80" s="7"/>
+      <c r="AZ80" s="7"/>
+      <c r="BA80" s="7"/>
+      <c r="BB80" s="19"/>
+      <c r="BC80" s="8"/>
+    </row>
+    <row r="81" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B81" s="17"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="7"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="7"/>
+      <c r="AG81" s="7"/>
+      <c r="AH81" s="7"/>
+      <c r="AI81" s="7"/>
+      <c r="AJ81" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK81" s="7"/>
+      <c r="AL81" s="7"/>
+      <c r="AM81" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN81" s="7"/>
+      <c r="AO81" s="7"/>
+      <c r="AP81" s="7"/>
+      <c r="AQ81" s="7"/>
+      <c r="AR81" s="7"/>
+      <c r="AS81" s="7"/>
+      <c r="AT81" s="7"/>
+      <c r="AU81" s="7"/>
+      <c r="AV81" s="7"/>
+      <c r="AW81" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX81" s="7"/>
+      <c r="AY81" s="7"/>
+      <c r="AZ81" s="7"/>
+      <c r="BA81" s="7"/>
+      <c r="BB81" s="7"/>
+      <c r="BC81" s="8"/>
+    </row>
+    <row r="82" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B82" s="17"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="7"/>
+      <c r="AI82" s="7"/>
+      <c r="AJ82" s="7"/>
+      <c r="AK82" s="7"/>
+      <c r="AL82" s="7"/>
+      <c r="AM82" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN82" s="7"/>
+      <c r="AO82" s="7"/>
+      <c r="AP82" s="7"/>
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="7"/>
+      <c r="AS82" s="7"/>
+      <c r="AT82" s="7"/>
+      <c r="AU82" s="7"/>
+      <c r="AV82" s="7"/>
+      <c r="AW82" s="7"/>
+      <c r="AX82" s="7"/>
+      <c r="AY82" s="7"/>
+      <c r="AZ82" s="7"/>
+      <c r="BA82" s="7"/>
+      <c r="BB82" s="7"/>
+      <c r="BC82" s="8"/>
+    </row>
+    <row r="83" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B83" s="17"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="7"/>
+      <c r="AG83" s="7"/>
+      <c r="AH83" s="7"/>
+      <c r="AI83" s="7"/>
+      <c r="AJ83" s="7"/>
+      <c r="AK83" s="7"/>
+      <c r="AL83" s="7"/>
+      <c r="AM83" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN83" s="7"/>
+      <c r="AO83" s="7"/>
+      <c r="AP83" s="7"/>
+      <c r="AQ83" s="7"/>
+      <c r="AR83" s="7"/>
+      <c r="AS83" s="7"/>
+      <c r="AT83" s="7"/>
+      <c r="AU83" s="7"/>
+      <c r="AV83" s="7"/>
+      <c r="AW83" s="7"/>
+      <c r="AX83" s="7"/>
+      <c r="AY83" s="7"/>
+      <c r="AZ83" s="7"/>
+      <c r="BA83" s="7"/>
+      <c r="BB83" s="7"/>
+      <c r="BC83" s="8"/>
+    </row>
+    <row r="84" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B84" s="17"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="7"/>
+      <c r="AC84" s="7"/>
+      <c r="AD84" s="7"/>
+      <c r="AE84" s="7"/>
+      <c r="AF84" s="7"/>
+      <c r="AG84" s="7"/>
+      <c r="AH84" s="7"/>
+      <c r="AI84" s="7"/>
+      <c r="AJ84" s="7"/>
+      <c r="AK84" s="7"/>
+      <c r="AL84" s="7"/>
+      <c r="AM84" s="7"/>
+      <c r="AN84" s="7"/>
+      <c r="AO84" s="7"/>
+      <c r="AP84" s="7"/>
+      <c r="AQ84" s="7"/>
+      <c r="AR84" s="7"/>
+      <c r="AS84" s="7"/>
+      <c r="AT84" s="7"/>
+      <c r="AU84" s="7"/>
+      <c r="AV84" s="7"/>
+      <c r="AW84" s="7"/>
+      <c r="AX84" s="7"/>
+      <c r="AY84" s="7"/>
+      <c r="AZ84" s="7"/>
+      <c r="BA84" s="7"/>
+      <c r="BB84" s="7"/>
+      <c r="BC84" s="8"/>
+    </row>
+    <row r="85" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B85" s="17"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
+      <c r="AG85" s="7"/>
+      <c r="AH85" s="7"/>
+      <c r="AI85" s="7"/>
+      <c r="AJ85" s="7"/>
+      <c r="AK85" s="7"/>
+      <c r="AL85" s="7"/>
+      <c r="AM85" s="7"/>
+      <c r="AN85" s="7"/>
+      <c r="AO85" s="7"/>
+      <c r="AP85" s="7"/>
+      <c r="AQ85" s="7"/>
+      <c r="AR85" s="7"/>
+      <c r="AS85" s="7"/>
+      <c r="AT85" s="7"/>
+      <c r="AU85" s="7"/>
+      <c r="AV85" s="7"/>
+      <c r="AW85" s="7"/>
+      <c r="AX85" s="7"/>
+      <c r="AY85" s="7"/>
+      <c r="AZ85" s="7"/>
+      <c r="BA85" s="7"/>
+      <c r="BB85" s="7"/>
+      <c r="BC85" s="8"/>
+    </row>
+    <row r="86" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B86" s="17"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="7"/>
+      <c r="AH86" s="7"/>
+      <c r="AI86" s="7"/>
+      <c r="AJ86" s="7"/>
+      <c r="AK86" s="7"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7"/>
+      <c r="AN86" s="7"/>
+      <c r="AO86" s="7"/>
+      <c r="AP86" s="7"/>
+      <c r="AQ86" s="7"/>
+      <c r="AR86" s="7"/>
+      <c r="AS86" s="7"/>
+      <c r="AT86" s="7"/>
+      <c r="AU86" s="7"/>
+      <c r="AV86" s="7"/>
+      <c r="AW86" s="7"/>
+      <c r="AX86" s="7"/>
+      <c r="AY86" s="7"/>
+      <c r="AZ86" s="7"/>
+      <c r="BA86" s="7"/>
+      <c r="BB86" s="7"/>
+      <c r="BC86" s="8"/>
+    </row>
+    <row r="87" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B87" s="17"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="7"/>
+      <c r="AI87" s="7"/>
+      <c r="AJ87" s="7"/>
+      <c r="AK87" s="7"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="7"/>
+      <c r="AN87" s="7"/>
+      <c r="AO87" s="7"/>
+      <c r="AP87" s="7"/>
+      <c r="AQ87" s="7"/>
+      <c r="AR87" s="7"/>
+      <c r="AS87" s="7"/>
+      <c r="AT87" s="7"/>
+      <c r="AU87" s="7"/>
+      <c r="AV87" s="7"/>
+      <c r="AW87" s="7"/>
+      <c r="AX87" s="7"/>
+      <c r="AY87" s="7"/>
+      <c r="AZ87" s="7"/>
+      <c r="BA87" s="7"/>
+      <c r="BB87" s="7"/>
+      <c r="BC87" s="8"/>
+    </row>
+    <row r="88" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B88" s="17"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7"/>
+      <c r="AH88" s="7"/>
+      <c r="AI88" s="7"/>
+      <c r="AJ88" s="7"/>
+      <c r="AK88" s="7"/>
+      <c r="AL88" s="7"/>
+      <c r="AM88" s="7"/>
+      <c r="AN88" s="7"/>
+      <c r="AO88" s="7"/>
+      <c r="AP88" s="7"/>
+      <c r="AQ88" s="7"/>
+      <c r="AR88" s="7"/>
+      <c r="AS88" s="7"/>
+      <c r="AT88" s="7"/>
+      <c r="AU88" s="7"/>
+      <c r="AV88" s="7"/>
+      <c r="AW88" s="7"/>
+      <c r="AX88" s="7"/>
+      <c r="AY88" s="7"/>
+      <c r="AZ88" s="7"/>
+      <c r="BA88" s="7"/>
+      <c r="BB88" s="7"/>
+      <c r="BC88" s="8"/>
+    </row>
+    <row r="89" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B89" s="17"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
+      <c r="AC89" s="7"/>
+      <c r="AD89" s="7"/>
+      <c r="AE89" s="7"/>
+      <c r="AF89" s="7"/>
+      <c r="AG89" s="7"/>
+      <c r="AH89" s="7"/>
+      <c r="AI89" s="7"/>
+      <c r="AJ89" s="7"/>
+      <c r="AK89" s="7"/>
+      <c r="AL89" s="7"/>
+      <c r="AM89" s="7"/>
+      <c r="AN89" s="7"/>
+      <c r="AO89" s="7"/>
+      <c r="AP89" s="7"/>
+      <c r="AQ89" s="7"/>
+      <c r="AR89" s="7"/>
+      <c r="AS89" s="7"/>
+      <c r="AT89" s="7"/>
+      <c r="AU89" s="7"/>
+      <c r="AV89" s="7"/>
+      <c r="AW89" s="7"/>
+      <c r="AX89" s="7"/>
+      <c r="AY89" s="7"/>
+      <c r="AZ89" s="7"/>
+      <c r="BA89" s="7"/>
+      <c r="BB89" s="7"/>
+      <c r="BC89" s="8"/>
+    </row>
+    <row r="90" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B90" s="17"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
+      <c r="AC90" s="7"/>
+      <c r="AD90" s="7"/>
+      <c r="AE90" s="7"/>
+      <c r="AF90" s="7"/>
+      <c r="AG90" s="7"/>
+      <c r="AH90" s="7"/>
+      <c r="AI90" s="7"/>
+      <c r="AJ90" s="7"/>
+      <c r="AK90" s="7"/>
+      <c r="AL90" s="7"/>
+      <c r="AM90" s="7"/>
+      <c r="AN90" s="7"/>
+      <c r="AO90" s="7"/>
+      <c r="AP90" s="7"/>
+      <c r="AQ90" s="7"/>
+      <c r="AR90" s="7"/>
+      <c r="AS90" s="7"/>
+      <c r="AT90" s="7"/>
+      <c r="AU90" s="7"/>
+      <c r="AV90" s="7"/>
+      <c r="AW90" s="7"/>
+      <c r="AX90" s="7"/>
+      <c r="AY90" s="7"/>
+      <c r="AZ90" s="7"/>
+      <c r="BA90" s="7"/>
+      <c r="BB90" s="7"/>
+      <c r="BC90" s="8"/>
+    </row>
+    <row r="91" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B91" s="17"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="7"/>
+      <c r="AH91" s="7"/>
+      <c r="AI91" s="7"/>
+      <c r="AJ91" s="7"/>
+      <c r="AK91" s="7"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="7"/>
+      <c r="AP91" s="7"/>
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="7"/>
+      <c r="AS91" s="7"/>
+      <c r="AT91" s="7"/>
+      <c r="AU91" s="7"/>
+      <c r="AV91" s="7"/>
+      <c r="AW91" s="7"/>
+      <c r="AX91" s="7"/>
+      <c r="AY91" s="7"/>
+      <c r="AZ91" s="7"/>
+      <c r="BA91" s="7"/>
+      <c r="BB91" s="7"/>
+      <c r="BC91" s="8"/>
+    </row>
+    <row r="92" spans="2:55" x14ac:dyDescent="0.2">
+      <c r="B92" s="17"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
+      <c r="AC92" s="7"/>
+      <c r="AD92" s="7"/>
+      <c r="AE92" s="7"/>
+      <c r="AF92" s="7"/>
+      <c r="AG92" s="7"/>
+      <c r="AH92" s="7"/>
+      <c r="AI92" s="7"/>
+      <c r="AJ92" s="7"/>
+      <c r="AK92" s="7"/>
+      <c r="AL92" s="7"/>
+      <c r="AM92" s="7"/>
+      <c r="AN92" s="7"/>
+      <c r="AO92" s="7"/>
+      <c r="AP92" s="7"/>
+      <c r="AQ92" s="7"/>
+      <c r="AR92" s="7"/>
+      <c r="AS92" s="7"/>
+      <c r="AT92" s="7"/>
+      <c r="AU92" s="7"/>
+      <c r="AV92" s="7"/>
+      <c r="AW92" s="7"/>
+      <c r="AX92" s="7"/>
+      <c r="AY92" s="7"/>
+      <c r="AZ92" s="7"/>
+      <c r="BA92" s="7"/>
+      <c r="BB92" s="7"/>
+      <c r="BC92" s="8"/>
+    </row>
+    <row r="93" spans="2:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="18"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="12"/>
+      <c r="AC93" s="12"/>
+      <c r="AD93" s="12"/>
+      <c r="AE93" s="12"/>
+      <c r="AF93" s="12"/>
+      <c r="AG93" s="12"/>
+      <c r="AH93" s="12"/>
+      <c r="AI93" s="12"/>
+      <c r="AJ93" s="12"/>
+      <c r="AK93" s="12"/>
+      <c r="AL93" s="12"/>
+      <c r="AM93" s="12"/>
+      <c r="AN93" s="12"/>
+      <c r="AO93" s="12"/>
+      <c r="AP93" s="12"/>
+      <c r="AQ93" s="12"/>
+      <c r="AR93" s="12"/>
+      <c r="AS93" s="12"/>
+      <c r="AT93" s="12"/>
+      <c r="AU93" s="12"/>
+      <c r="AV93" s="12"/>
+      <c r="AW93" s="12"/>
+      <c r="AX93" s="12"/>
+      <c r="AY93" s="12"/>
+      <c r="AZ93" s="12"/>
+      <c r="BA93" s="12"/>
+      <c r="BB93" s="12"/>
+      <c r="BC93" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
     <hyperlink ref="U70" r:id="rId1" xr:uid="{EE783571-AC3F-DD4E-8199-E4AE0B397AC4}"/>
     <hyperlink ref="Z73" r:id="rId2" xr:uid="{278B360C-D2C8-AB40-A6E7-5237121B08F8}"/>
     <hyperlink ref="AF71" r:id="rId3" xr:uid="{94ED79B3-01A9-0F46-BFC4-AF71348B62DF}"/>
@@ -11170,11 +18920,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DBD207-F00B-8741-8A8B-C9493A16BAA5}">
   <dimension ref="A1:BH93"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15457,7 +23209,7 @@
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
@@ -15670,7 +23422,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
